--- a/aggregated_output/DELHI_aggregated.xlsx
+++ b/aggregated_output/DELHI_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. Reading the available information is a logical step toward understanding how to contribute to JabRef. This aligns with ABI's motivation to use technology to accomplish tasks and their comprehensive information processing style.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. Reading the available information is a logical step toward understanding how to contribute to JabRef, aligning with ABI's motivations and information processing style.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. Reading the available information is a logical step toward understanding how to contribute to JabRef. This aligns with ABI's motivation to use technology to achieve tasks and their comprehensive information processing style.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. Reading the available information is a logical step toward understanding how to contribute to Jabref, aligning with ABI's motivation to complete tasks and their comprehensive information processing style.</t>
+Facets: Motivations, Information Processing Style
+Why: The subgoal of reading the available information aligns with Abi's motivations to accomplish tasks and gather comprehensive information. The page contains detailed information about JabRef, including features, installation, and contributing guidelines, which Abi would consider necessary to understand before contributing.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
+Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive amount of information about JabRef, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will likely know to read through the available information to understand how to contribute to JabRef. The page is structured in a way that makes it clear where to find relevant information, which will help ABI feel confident in taking this action.</t>
+Why: The page provides a comprehensive amount of information about JabRef, including features, installation, and contributing guidelines. ABI, who prefers to gather comprehensive information before acting, will find this page suitable for reading and understanding the available information. The clear headings and structured layout will help ABI know what to do at this step.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains a comprehensive amount of information about JabRef, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The detailed information provided will help ABI understand what to do at this step.</t>
+Why: The page contains a comprehensive amount of information about JabRef, including sections on features, installation, contributing, and more. This aligns with ABI's motivation to accomplish tasks and their preference for gathering comprehensive information before acting. The clear headings and structured layout make it easy for ABI to know what to do at this step.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive amount of information about JabRef, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will likely know to read through the available information to understand how to contribute to JabRef. The detailed and structured layout of the page supports ABI in taking this action.</t>
+Why: The page provides a comprehensive amount of information about JabRef, including features, installation, and contributing guidelines. ABI, who prefers to gather comprehensive information before acting, will find this page suitable for reading and understanding the available information. The clear sections and detailed content align with ABI's motivation to accomplish tasks and their information processing style.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive amount of information about Jabref, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their preference for gathering comprehensive information before acting. The clear headings and structured layout make it easy for ABI to know what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The page provides a comprehensive amount of information about JabRef, including features, installation, and contributing guidelines. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. The information is well-organized and detailed, making it clear for Abi to understand what to do at this step.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive amount of information about JabRef, including sections on features, installation, and contributing. ABI, who is motivated to accomplish tasks and prefers to gather all relevant information before proceeding, will find this page suitable for reading the available information. The detailed content aligns with ABI's comprehensive information processing style, making it clear what to do at this step.</t>
+Why: The page contains a comprehensive amount of information about JabRef, including sections on features, installation, and contributing. ABI, who prefers to gather all relevant information before proceeding, will find this page suitable for reading and understanding what to do next. The clear headings and structured layout will help ABI know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed sections on various aspects of JabRef, including a specific section on "Contributing." This section outlines how to get involved, what to contribute, and provides links to further guidelines and resources. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. By reading through this information, ABI will know they are making progress toward their goal of finding something to contribute to JabRef and will have the necessary information to proceed.</t>
+Why: The page provides detailed and structured information about contributing to JabRef, including sections on bug reports, suggestions, and contributing guidelines. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. By reading this information, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The clear and organized presentation of information ensures that ABI will get all the necessary details.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After reading the available information on the page, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed sections on contributing, including guidelines and steps to follow, which aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The information is well-organized and thorough, ensuring ABI gets all the information they need.</t>
+Why: The page provides a detailed and structured layout of information about JabRef, including sections on features, installation, and contributing. This comprehensive information aligns with ABI's motivation to accomplish tasks and their preference for gathering detailed information. By reading through the available information, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The clear headings and organized content will help ABI feel confident that they are on the right track and have the necessary information.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed sections on various aspects of JabRef, including a specific section on "Contributing." This section outlines how to get involved, submit bug reports, and contribute to the project. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. By reading through this information, ABI will know they are making progress toward their goal of finding something to contribute to JabRef and will have the necessary information to proceed.</t>
+Why: After reading the available information on the page, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed sections on features, installation, and contributing guidelines, which are essential for understanding how to contribute. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring they have all the necessary information to proceed.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After reading the available information on the page, ABI will know they are making progress toward their goal of finding something to contribute to Jabref. The page provides detailed sections on contributing, including guidelines and steps to follow, which aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The structured and clear presentation of information ensures that ABI gets all the necessary details to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: The page provides detailed and comprehensive information about contributing to JabRef, including specific guidelines and steps. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. By reading the available information, Abi will know she is making progress toward her goal and will have the necessary details to contribute effectively.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed sections on various aspects of JabRef, including features, installation, and contributing. If ABI reads through this information, they will know they are making progress toward their goal of finding something to contribute to JabRef. The comprehensive information aligns with ABI's need to gather all relevant details before proceeding, ensuring they feel confident they are on the right track and have the necessary information.</t>
+Why: The page provides a detailed and structured layout of information, including sections on features, installation, and contributing. If ABI reads through the available information, they will know they are making progress toward their goal of finding something to contribute to JabRef. The comprehensive information aligns with ABI's preference for gathering all relevant details before proceeding, ensuring they have the necessary context and understanding to move forward.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contributing" section on the page clearly includes a link labeled "Learn how to help." This is a direct call to action that aligns with ABI's motivation to contribute and their need for comprehensive information. The link is prominently placed and clearly labeled, making it easy for ABI to understand that clicking it will provide further information on how to contribute. This reduces uncertainty and aligns with ABI's preference for process-oriented learning.</t>
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. ABI is motivated to accomplish tasks and prefers to gather comprehensive information. Clicking this link is a logical next step to obtain more detailed information on how to contribute, aligning with ABI's motivations and information processing style.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The page provides sufficient context and guidance, making it clear that clicking this link will provide more information on how to contribute.</t>
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. This aligns with ABI's motivation to accomplish tasks and their preference for gathering comprehensive information. The page is structured in a way that makes it clear what the next step is, and clicking the link is a logical action to take to get more detailed information on how to contribute.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contributing" section on the page clearly includes a link labeled "Learn how to help." This is a clear call to action that aligns with ABI's motivation to contribute and their need for comprehensive information. The page provides enough context for ABI to understand that clicking this link will provide further details on how to contribute, making it likely that ABI will know what to do at this step.</t>
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. The page provides sufficient context and information, making it clear that clicking this link will provide further details on how to contribute. This aligns with ABI's motivation to accomplish tasks and their preference for gathering comprehensive information before taking action.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to Jabref. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The page provides a clear call to action, making it easy for ABI to know what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to Abi's goal of finding something to contribute to JabRef. The page provides sufficient context and information, making it clear that clicking this link will provide further details on how to contribute. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides a clear call to action, making it easy for ABI to understand what to do next and ensuring the page is good enough for ABI to take this action.</t>
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. ABI, who is motivated to accomplish tasks and prefers a comprehensive information processing style, will recognize that clicking this link is a logical next step to gather more detailed information on how to contribute. The page provides enough context for ABI to understand that this action will lead to more specific guidance on contributing.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page ABI lands on after clicking "Learn how to help" provides clear, categorized information on how to contribute to JabRef. It includes sections tailored to different types of contributors (e.g., students, new to open source, looking for high-impact contributions). This structured and detailed information aligns with ABI's motivation to contribute and their comprehensive information processing style. ABI will know they are making progress toward their goal and will have access to all the necessary information to proceed.</t>
+Why: The "Contribute to JabRef" page provides clear and detailed information on various ways to contribute, tailored to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The structured layout and specific guidance ensure that ABI will know they are making progress toward their goal and will get all the information they need.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Learn how to help," ABI will land on a page that provides clear and detailed information on various ways to contribute to JabRef. The page is well-organized with sections tailored to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The specific guidance and links to further resources ensure that ABI will know they are making progress toward their goal and will get all the information they need.</t>
+Why: The "Contribute to JabRef" page provides clear and detailed information on various ways to contribute, tailored to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The structured layout and specific guidance will help ABI know they are making progress toward their goal and provide the necessary information to contribute effectively.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page ABI lands on after clicking "Learn how to help" provides a clear and detailed guide on how to contribute to JabRef. It includes various sections tailored to different types of contributors (e.g., students, new to open source, looking for high-impact contributions). This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The structured and detailed information will help ABI know they are making progress toward their goal and provide all the necessary information to proceed.</t>
+Why: After clicking "Learn how to help," ABI will land on a page that provides detailed and categorized information on how to contribute to JabRef. The page is well-organized, offering various options based on the user's background and preferences (e.g., student, new to open source, looking for high-impact contributions). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information, ensuring they know they are making progress toward their goal and have all the necessary information to proceed.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Learn how to help," ABI lands on a page that provides detailed and categorized information on how to contribute to Jabref. The page is well-organized, offering different paths for various types of contributors (e.g., students, new to open source, looking for high-impact contributions). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The clear and structured layout ensures that ABI knows they are making progress toward their goal and provides all the necessary information to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking "Learn how to help," Abi lands on a page that provides clear and detailed information about various ways to contribute to JabRef. The page is well-organized, with specific sections for different types of contributors (e.g., students, new to open source, lecturers). This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. Abi will know she is making progress toward her goal and will have access to all the necessary information to contribute effectively.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Learn how to help," ABI lands on a page that provides clear and detailed information on various ways to contribute to JabRef. The page is well-organized, with sections tailored to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will know they are making progress toward their goal and will have access to all the necessary information to find something to contribute to JabRef.</t>
+Why: After clicking "Learn how to help," ABI lands on a page that provides clear and detailed information on various ways to contribute to JabRef. The page is well-organized with specific sections for different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. ABI will know they are making progress toward their goal and will have access to all the necessary information to decide how to contribute.</t>
         </is>
       </c>
     </row>
@@ -623,35 +623,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized and provides clear, categorized information on how to contribute to JabRef. It includes sections tailored to different types of contributors, such as students, new contributors, and those looking for high-impact contributions. This structure aligns with ABI's motivation to contribute and their comprehensive information processing style. The clear headings and detailed instructions make it easy for ABI to know what to do next and to feel confident in taking the action of reading the page.</t>
+Why: The page is clearly structured with headings and sections that cater to different types of contributors, such as students, new open-source contributors, and lecturers. This clear organization and detailed information align with ABI's motivation to accomplish tasks and their preference for comprehensive information. ABI will know to read the page to gather the necessary information to contribute to JabRef.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly titled "Contribute to JabRef" and provides detailed information on various ways to contribute, tailored to different types of contributors. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The page is well-organized and provides clear instructions and links, making it easy for ABI to know what to do at this step and to take the action of reading the page.</t>
+Why: The page is clearly titled "Contribute to JabRef" and provides detailed information on various ways to contribute, tailored to different types of contributors. This aligns with ABI's motivation to accomplish tasks and their preference for gathering comprehensive information. The structured layout and specific guidance make it clear what ABI needs to do at this step, and the page is well-organized to facilitate reading and understanding the available information.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-structured and provides clear, detailed information on how to contribute to JabRef. It includes specific sections for different types of contributors, such as students, new open-source contributors, and those looking for high-impact projects. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear headings and organized content will help ABI know what to do at this step and feel confident in taking the action to read the page.</t>
+Why: The page is well-organized and provides clear, categorized information on how to contribute to JabRef. It addresses different user backgrounds and preferences, making it easy for ABI to find relevant information. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information, ensuring they know what to do at this step and that the page is good enough for them to take this action.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly structured with headings and sections that cater to different types of contributors, such as students, new open-source contributors, and those looking for high-impact projects. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The clear and organized layout makes it easy for ABI to know what to do at this step and provides the necessary information to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: The page is clearly titled "Contribute to JabRef" and provides detailed sections for different types of contributors, such as students, new to open source, and lecturers. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The page is well-organized and provides clear instructions, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly structured and provides detailed information on various ways to contribute to JabRef, tailored to different types of contributors. ABI, who is motivated to accomplish tasks and prefers to gather comprehensive information, will find this page suitable for reading. The clear headings and organized content make it easy for ABI to know what to do at this step and ensure the page is good enough for ABI to take this action.</t>
+Why: The page is clearly structured with headings and sections that cater to different types of contributors, such as students, new open-source contributors, and lecturers. This organization aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. ABI will know to read through the relevant sections to gather the necessary information, making the page suitable for this action.</t>
         </is>
       </c>
     </row>
@@ -660,35 +660,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides clear, categorized information on how to contribute to JabRef, tailored to different types of contributors. This structure helps ABI understand that they are making progress toward their goal. The detailed instructions and links to further resources ensure that ABI gets all the information they need. This aligns with ABI's motivation to contribute and their comprehensive information processing style, making it clear that they are on the right track.</t>
+Why: The page provides detailed and categorized information on various ways to contribute to JabRef, tailored to different types of contributors. This clear and structured presentation aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. By reading this page, ABI will know they are making progress toward their goal and will get all the necessary information to contribute effectively.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After reading the page, ABI will know they did the right thing and are making progress toward their goal. The page provides clear, detailed information on various ways to contribute, tailored to different types of contributors. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The specific guidance and links to further resources ensure that ABI gets all the information they need to proceed with contributing to JabRef.</t>
+Why: The "Contribute to JabRef" page provides clear, detailed, and structured information on various ways to contribute, tailored to different types of contributors. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The page includes specific guidance and links to further resources, which will help ABI know they are making progress toward their goal and provide the necessary information to contribute effectively. The clear categorization and actionable steps ensure ABI can confidently proceed.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and detailed guide on how to contribute to JabRef, with specific sections for different types of contributors. This structured and comprehensive information aligns with ABI's motivation to contribute and their need for detailed information. By reading the page, ABI will know they are making progress toward their goal and will have all the necessary information to proceed. The clear headings and organized content ensure that ABI can easily find the information relevant to their needs.</t>
+Why: The page provides clear, categorized information on how to contribute to JabRef, addressing different user backgrounds and preferences. This ensures that ABI will know they are making progress toward their goal and have all the necessary information. The detailed and organized content aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information, confirming that they did the right thing and are on the right track.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After reading the page, ABI will know they are making progress toward their goal of finding something to contribute to Jabref. The page provides detailed and categorized information for different types of contributors, such as students, new open-source contributors, and those looking for high-impact projects. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The clear and organized layout ensures that ABI gets all the necessary details to proceed, confirming that they did the right thing and are making progress toward their goal.</t>
+Facets: Motivations, Information Processing Style
+Why: The page provides clear and detailed information about various ways to contribute to JabRef, tailored to different types of contributors. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. By reading the page, Abi will know she is making progress toward her goal and will have access to all the necessary information to contribute effectively. The structured layout and specific instructions ensure that Abi can easily understand the next steps.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides clear and detailed information on various ways to contribute to JabRef, tailored to different types of contributors. ABI will know they are making progress toward their goal because the page is well-organized and offers specific actions and resources (e.g., lists of good first issues, university projects, documentation for developers). This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring they get all the information they need to contribute effectively.</t>
+Why: The page provides a clear and detailed breakdown of different ways to contribute to JabRef, tailored to various types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. By reading through the relevant sections, ABI will know they are making progress toward their goal and will have access to all the necessary information to decide how to contribute effectively.</t>
         </is>
       </c>
     </row>
@@ -697,35 +697,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "list of good first issues" as a link under multiple sections, such as for students and new contributors. This direct call to action aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The link is prominently placed and clearly labeled, making it easy for ABI to understand that clicking it will provide further information on suitable issues to start with. This reduces uncertainty and aligns with ABI's preference for process-oriented learning.</t>
+Why: The "list of good first issues" link is clearly labeled and contextually placed under sections relevant to different types of contributors. This clear labeling and placement align with ABI's motivation to accomplish tasks and their preference for comprehensive information. ABI will know to click this link to find specific issues to contribute to, making it a logical next step in their process.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "list of good first issues" as a link under multiple sections, making it evident that clicking this link will provide ABI with a list of issues suitable for beginners. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear labeling and context provided on the page make it easy for ABI to know what to do at this step and to take the action of clicking the link.</t>
+Why: The page clearly lists "list of good first issues" as a clickable link under multiple sections, such as for students and those new to open source. This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The link is prominently displayed and contextually relevant, making it clear to ABI that clicking it is the next logical step to find specific issues to work on.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that clicking on the "list of good first issues" will provide ABI with a collection of issues suitable for beginners. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear labeling and context provided on the page make it evident that this action will help ABI find appropriate tasks to contribute to JabRef.</t>
+Why: The "list of good first issues" link is clearly labeled and contextually placed under sections relevant to different types of contributors. This makes it clear to ABI that clicking this link will provide a list of issues suitable for beginners, aligning with their goal of finding something to contribute to JabRef. The page is well-organized and provides sufficient context, making it easy for ABI to know what to do at this step and feel confident in taking this action.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "list of good first issues" as a clickable link under multiple sections, such as for students and new open-source contributors. This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The clear labeling and context provided make it easy for ABI to know what to do at this step and that clicking the link will help them find suitable issues to contribute to.</t>
+Facets: Motivations, Information Processing Style
+Why: The link "list of good first issues" is clearly labeled and contextually placed under sections relevant to different types of contributors. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The page provides sufficient context, making it clear that clicking this link will lead to a list of issues suitable for new contributors.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels the "list of good first issues" link, making it easy for ABI to understand what to do at this step. ABI is motivated to find something to contribute to and prefers to gather comprehensive information. The link is prominently placed and contextually relevant, ensuring ABI knows that clicking it will provide a list of issues suitable for beginners, which aligns with their goal. The page is good enough for ABI to take this action as it provides clear guidance and relevant information.</t>
+Why: The page clearly lists "list of good first issues" as a hyperlink under the section for students and new contributors. This is a logical next step for ABI, who is motivated to find something to contribute to and prefers comprehensive information. The link is prominently placed and clearly labeled, making it easy for ABI to understand that clicking it will provide more specific information on potential contributions.</t>
         </is>
       </c>
     </row>
@@ -734,35 +734,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page ABI lands on after clicking "list of good first issues" provides a clear list of issues labeled as "good first issue." This directly aligns with ABI's goal of finding something to contribute to and provides a straightforward way to identify suitable tasks. The issues are well-organized and labeled, making it easy for ABI to understand that they are making progress toward their goal. The detailed information on each issue ensures that ABI gets all the information they need to proceed. This aligns with ABI's motivation to contribute and their comprehensive information processing style.</t>
+Why: The page ABI lands on after clicking "list of good first issues" provides a clear list of issues labeled as "good first issue," along with additional tags indicating the type of issue (e.g., bug, enhancement). This clear and organized presentation aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. ABI will know they are making progress toward their goal and will have access to all the necessary information to choose an issue to work on.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "list of good first issues," ABI will land on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for beginners, which aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The detailed list of issues, along with labels and descriptions, ensures that ABI will know they did the right thing and are making progress toward their goal. The information provided is sufficient for ABI to understand the available tasks and choose one to contribute to.</t>
+Why: After clicking on the "list of good first issues" link, ABI is directed to a page that lists specific issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for new contributors, which aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The detailed list of issues, along with labels and descriptions, will help ABI know they are making progress toward their goal and provide the necessary information to choose an appropriate task to work on.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page ABI lands on after clicking "list of good first issues" provides a clear list of issues labeled as "good first issue," along with additional tags indicating the type of issue (e.g., bug, enhancement). This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The structured list and clear labeling will help ABI know they are making progress toward their goal and provide all the necessary information to choose an appropriate issue to work on.</t>
+Why: After clicking on the "list of good first issues," ABI will land on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for beginners, which aligns with ABI's goal of finding something to contribute to JabRef. The detailed labels and descriptions of each issue ensure that ABI knows they are making progress toward their goal and have all the necessary information to choose an appropriate task. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "list of good first issues," ABI lands on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of potential contributions, which aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The detailed list of issues, along with labels and descriptions, ensures that ABI knows they did the right thing and are making progress toward their goal. The page provides all the necessary information to choose an issue to work on.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking on the "list of good first issues," Abi lands on a page that lists specific issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for new contributors, which aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The detailed list of issues ensures that Abi will know she is making progress toward her goal and will have the necessary information to choose an appropriate task to contribute to.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "list of good first issues," ABI lands on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for beginners, which aligns with ABI's goal of finding something to contribute to. The detailed list of issues, along with their descriptions and labels, ensures that ABI knows they are making progress toward their goal and has all the information they need to choose an appropriate task to contribute to JabRef.</t>
+Why: After clicking on the "list of good first issues," ABI lands on a page that lists specific issues labeled as "good first issue." This page provides a clear and organized list of potential contributions, which aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The labels and descriptions of the issues will help ABI understand that they are making progress toward their goal and provide the necessary information to choose an issue to work on.</t>
         </is>
       </c>
     </row>
@@ -771,72 +771,72 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a list of issues labeled as "good first issue," which is exactly what ABI is looking for. Each issue is clearly labeled with its type and a brief description, making it easy for ABI to understand what each issue entails. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear organization and labeling of the issues make it straightforward for ABI to click on something they want to know more about, ensuring they know what to do at this step.</t>
+Why: The page provides a list of issues with clear labels and tags, making it easy for ABI to read through the options and click on something they want to know more about. This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The structured presentation of issues ensures that ABI will know what to do at this step and will find the page good enough to take this action.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and organized list of issues labeled as "good first issue," with each issue having a brief description and relevant tags. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The layout and labeling make it easy for ABI to read the options and click on something they want to know more about. The page is good enough for ABI to take this action as it provides sufficient context and information for each issue.</t>
+Why: The page provides a clear and organized list of issues labeled as "good first issue," along with descriptions and labels indicating the type of issue (e.g., bug, enhancement). This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The structured layout and detailed information make it clear what ABI needs to do at this step, and the page is well-organized to facilitate reading and understanding the available options. ABI will know to click on an issue to learn more about it, making it easy to take the next step.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear list of issues labeled as "good first issue," along with additional tags indicating the type of issue (e.g., bug, enhancement). This structured presentation aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear labeling and organization of the issues make it evident that ABI can click on any issue to learn more about it, helping them know what to do at this step and feel confident in taking the action to read the options and click on something they want to know more about.</t>
+Why: The page is well-organized with a clear list of issues labeled as "good first issue," along with additional tags that describe the type of issue (e.g., bug, enhancement). This makes it easy for ABI to read through the options and click on something they want to know more about. The detailed labels and descriptions provide sufficient context, ensuring ABI knows what to do at this step and feels confident in taking this action. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear list of issues with labels and brief descriptions, making it easy for ABI to read the options and decide which one they want to know more about. This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The structured layout and clear labeling ensure that ABI knows what to do at this step and that the page is good enough for them to take this action.</t>
+Facets: Motivations, Information Processing Style
+Why: The page provides a clear and organized list of issues labeled as "good first issue," which are suitable for new contributors. Each issue is clickable, allowing Abi to read more details about the specific issue. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The page is well-structured, making it easy for Abi to know what to do at this step and to take the action of clicking on an issue to learn more.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and organized list of issues labeled as "good first issue," along with brief descriptions and labels indicating the type of issue (e.g., bug, enhancement). This makes it easy for ABI to understand what to do at this step. ABI is motivated to find something to contribute to and prefers to gather comprehensive information. The page is good enough for ABI to take this action as it provides clear options to explore further by clicking on an issue to learn more about it.</t>
+Why: The page is well-organized with a list of issues labeled as "good first issue," along with additional tags that describe the type of issue (e.g., bug, enhancement). This clear labeling and organization align with ABI's motivation to find something to contribute to and their preference for comprehensive information. ABI will know to read through the options and click on an issue to learn more about it, making the page suitable for this action.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page ABI lands on after clicking an issue provides detailed information about the issue, including a description, comments, and discussions. This aligns with ABI's motivation to contribute and their comprehensive information processing style. The detailed information and ongoing discussions ensure that ABI knows they are making progress toward their goal and provide all the necessary context and details to understand the issue fully. This helps ABI feel confident that they did the right thing and are on the right track.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides detailed information about the issue, including comments and discussions, the amount of information and technical details might be overwhelming for ABI. ABI's comprehensive information processing style means they need to gather all relevant information, but the extensive and technical nature of the content might make it difficult for them to feel confident that they are making progress toward their goal. Additionally, ABI's low computer self-efficacy might cause them to feel uncertain about whether they are doing the right thing, especially if they encounter unfamiliar technical terms or complex discussions.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+Why: While the page provides detailed information about the issue, the amount of information and the technical nature of the content might be overwhelming for ABI. ABI prefers comprehensive information but also needs it to be easily digestible. The extensive comments and technical details might make it difficult for ABI to quickly determine if they are making progress toward their goal and if they have all the information they need. Additionally, ABI's low computer self-efficacy might make them doubt if they are on the right track when faced with such a complex page.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides detailed information about the issue, including comments and discussions, the amount of information might be overwhelming for ABI. ABI's comprehensive information processing style means they need to gather all relevant information, but the extensive and technical nature of the content might make it difficult for ABI to feel confident that they are making progress toward their goal. Additionally, ABI's low computer self-efficacy might make them feel uncertain about whether they have understood everything correctly and whether they are on the right track. The page might not provide a clear, concise summary that ABI can easily process to feel confident in their progress.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+Why: The page ABI lands on after clicking an issue contains a lot of detailed information, including comments, graphs, and technical discussions. While this information is comprehensive, it may be overwhelming for ABI, who has low confidence in unfamiliar computing tasks. The extensive and technical nature of the content might make it difficult for ABI to immediately know they are making progress toward their goal and to extract all the necessary information. ABI might feel uncertain about what to do next or how to proceed with the information provided.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides detailed information about the issue, including comments and discussions, the amount of information and technical details might be overwhelming for ABI. ABI prefers comprehensive information but also needs it to be easily digestible. The extensive and technical nature of the content might make it difficult for ABI to know if they are making progress toward their goal and if they have all the information they need. Additionally, ABI's low computer self-efficacy might make them doubt their understanding of the technical details presented.</t>
+Why: The page ABI lands on after clicking an issue contains a lot of detailed information, including technical discussions and visual data. While this information is comprehensive, it may be overwhelming for ABI, who has low confidence in unfamiliar computing tasks and prefers clear, concise information. The extensive comments and technical jargon might make it difficult for ABI to immediately know they are making progress toward their goal and to extract all the necessary information efficiently. This could hinder their ability to feel confident that they did the right thing and are on the right track.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: Computer Self-Efficacy, Information Processing Style
+Why: The page Abi lands on after clicking an issue contains a lot of technical details and discussions, which might be overwhelming for her. Given Abi's low confidence in doing unfamiliar computing tasks and her comprehensive information processing style, she might find it difficult to determine if she is making progress toward her goal. The extensive and technical nature of the information might make it challenging for Abi to feel confident that she has all the information she needs to contribute effectively.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides detailed information about the specific issue, the amount of information and the technical nature of the content might be overwhelming for ABI. ABI prefers comprehensive information but also needs it to be easily digestible. The extensive comments and technical details might make it difficult for ABI to quickly determine if they are making progress toward their goal and if they have all the information they need. Additionally, ABI's low computer self-efficacy might make them doubt if they are on the right track when faced with such a detailed and technical page.</t>
+Why: While the page provides detailed information about the specific issue, it may be overwhelming for ABI due to the extensive amount of technical details and discussions. ABI prefers comprehensive information but may struggle with the technical jargon and the volume of information presented. Additionally, ABI's low computer self-efficacy might make them doubt whether they are making progress toward their goal, especially if they find the information difficult to understand or too technical. This could hinder their confidence in knowing they did the right thing and are making progress.</t>
         </is>
       </c>
     </row>
